--- a/userData.xlsx
+++ b/userData.xlsx
@@ -967,7 +967,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,7 +1125,7 @@
         <v>76</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>74</v>
